--- a/FinX_billPayment/Default.xlsx
+++ b/FinX_billPayment/Default.xlsx
@@ -14,10 +14,48 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>fromAccount</t>
+  </si>
+  <si>
+    <t>5fbe3b2c4b2ce7c51a3d775df35f</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>toPayee</t>
+  </si>
+  <si>
+    <t>5fbe3b2c602cecc5063d585d9d5fbb74ac7e87eea4065a2ac6914c79732c</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>543875</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,6 +64,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -43,13 +89,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,51 +113,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,6 +123,58 @@
       <color theme="3"/>
       <name val="Calibri Light"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -154,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,17 +208,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
 </styleSheet>
@@ -467,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -475,11 +559,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.56640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.98828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.8671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.41796875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row customFormat="1">
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>3</v>
+      </c>
+      <c s="4" t="s">
+        <v>7</v>
+      </c>
+      <c s="1">
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="5" t="s">
+        <v>10</v>
+      </c>
+      <c s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -494,7 +626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/FinX_billPayment/Default.xlsx
+++ b/FinX_billPayment/Default.xlsx
@@ -17,18 +17,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
     <t>fromAccount</t>
   </si>
   <si>
     <t>5fbe3b2c4b2ce7c51a3d775df35f</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>userName</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Test Payment</t>
   </si>
   <si>
     <t>543875</t>
@@ -245,10 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
@@ -554,7 +554,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -562,7 +562,7 @@
     <col min="1" max="1" width="27.56640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.98828125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.8671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.41796875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
@@ -570,42 +570,42 @@
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>7</v>
       </c>
       <c t="s">
         <v>8</v>
       </c>
       <c t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>0</v>
       </c>
       <c t="s">
         <v>5</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>6</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>3</v>
-      </c>
-      <c s="4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c s="3" t="s">
+        <v>6</v>
       </c>
       <c s="1">
         <v>5</v>
       </c>
       <c s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c s="5" t="s">
         <v>10</v>
       </c>
-      <c s="3" t="s">
-        <v>1</v>
+      <c s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/FinX_billPayment/Default.xlsx
+++ b/FinX_billPayment/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>fromAccount</t>
   </si>
@@ -35,6 +35,12 @@
     <t>toPayee</t>
   </si>
   <si>
+    <t>ostype</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
     <t>5fbe3b2c602cecc5063d585d9d5fbb74ac7e87eea4065a2ac6914c79732c</t>
   </si>
   <si>
@@ -44,10 +50,22 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
     <t>Test Payment</t>
   </si>
   <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>543875</t>
+  </si>
+  <si>
+    <t>Android SDK built for x86</t>
   </si>
 </sst>
 </file>
@@ -245,10 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
@@ -551,32 +569,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="27.56640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.98828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.41796875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.56640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.98828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.70703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.41796875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
         <v>3</v>
       </c>
       <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>10</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -590,27 +619,36 @@
     </row>
     <row>
       <c s="1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
         <v>1</v>
       </c>
-      <c s="3" t="s">
-        <v>6</v>
+      <c s="4" t="s">
+        <v>8</v>
       </c>
       <c s="1">
         <v>5</v>
       </c>
       <c s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c s="5" t="s">
-        <v>10</v>
-      </c>
-      <c s="4" t="s">
+        <v>15</v>
+      </c>
+      <c s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FinX_billPayment/Default.xlsx
+++ b/FinX_billPayment/Default.xlsx
@@ -26,12 +26,18 @@
     <t>water</t>
   </si>
   <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
     <t>userName</t>
   </si>
   <si>
     <t>Memo</t>
   </si>
   <si>
+    <t>Android SDK</t>
+  </si>
+  <si>
     <t>toPayee</t>
   </si>
   <si>
@@ -53,9 +59,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
     <t>Test Payment</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>543875</t>
-  </si>
-  <si>
-    <t>Android SDK built for x86</t>
   </si>
 </sst>
 </file>
@@ -263,13 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -572,13 +572,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.19140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.56640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.98828125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.70703125" style="2" customWidth="1"/>
@@ -590,59 +590,59 @@
   <sheetData>
     <row customFormat="1">
       <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
         <v>11</v>
       </c>
       <c t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>0</v>
       </c>
       <c t="s">
         <v>7</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
-        <v>5</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
       </c>
-      <c s="4" t="s">
-        <v>8</v>
+      <c s="3" t="s">
+        <v>10</v>
       </c>
       <c s="1">
         <v>5</v>
       </c>
       <c s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c s="4" t="s">
+        <v>16</v>
       </c>
       <c s="5" t="s">
-        <v>15</v>
-      </c>
-      <c s="3" t="s">
         <v>2</v>
       </c>
     </row>
